--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31223742021295425</v>
+        <v>0.087247816387153759</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29475114531501645</v>
+        <v>0.031827171432874835</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0017158152679211986</v>
+        <v>-0.053250942529575469</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0029000788948779993</v>
+        <v>-0.0066105115833614281</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.015517901860737262</v>
+        <v>-0.014267040328547531</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00024105901973156942</v>
+        <v>0.018925963037573545</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00047320191225398912</v>
+        <v>0.00015408987611437112</v>
       </c>
       <c r="I3" s="0">
-        <v>-9.637501963990961e-05</v>
+        <v>0.0053262331958034582</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.6526541381743929e-05</v>
+        <v>-0.0056984366222858629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28050550052504158</v>
+        <v>0.3362773681286087</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.01018721839341381</v>
+        <v>0.19114178963307252</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3836693668047559e-05</v>
+        <v>0.00097430928317646516</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00017211792836761754</v>
+        <v>0.00060728935863749655</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>6.4613072293389438e-06</v>
+        <v>-0.0087535625758914277</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0011405957511215242</v>
+        <v>0.085700866133402054</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.003614667115607254</v>
+        <v>0.032998647390833892</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00084865639763798129</v>
+        <v>0.0017808574725028392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26776504533325041</v>
+        <v>0.38108031087963395</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0034549859391266543</v>
+        <v>0.035348231244057358</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0013336251301294317</v>
+        <v>0.040341877376499087</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.009105609528796639</v>
+        <v>-0.032508647720570806</v>
       </c>
       <c r="G5" s="0">
-        <v>-8.8583627611397615e-05</v>
+        <v>-0.029907755848588739</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.8923656596057183e-05</v>
+        <v>-0.0051321507618469495</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0010831286668623755</v>
+        <v>0.0039408851202921815</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00017814402360660786</v>
+        <v>0.032720503341183149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.25124510386251403</v>
+        <v>0.30861934839976063</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.030968683499019982</v>
+        <v>-0.00078880538271779849</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.6900956185996609e-05</v>
+        <v>0.0029984472658699892</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0014324243141210285</v>
+        <v>-0.0031852921299524201</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00074928989172453133</v>
+        <v>-0.0079690595998846356</v>
       </c>
       <c r="I6" s="0">
-        <v>0.015997198307715892</v>
+        <v>-0.064754086904861285</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0037570714414638662</v>
+        <v>0.0012378342716728441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24365296112858428</v>
+        <v>0.41318216153755694</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.025041510255192106</v>
+        <v>0.1880510962627209</v>
       </c>
       <c r="E7" s="0">
-        <v>0.014901315664287883</v>
+        <v>-0.0031227092784953336</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0015883725082736018</v>
+        <v>-0.070178495193489038</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0020700636287312871</v>
+        <v>0.010184168836036751</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00042635376673039107</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0010272343074990867</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0024288624366634592</v>
+        <v>-0.020371247488976951</v>
       </c>
     </row>
     <row r="8">
